--- a/Martiz-Prueba-Proyecto Final Code.xlsx
+++ b/Martiz-Prueba-Proyecto Final Code.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurur\Desktop\ProyectoFinal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB94B443-09E9-4457-B1F0-D24A12CD4076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mg3tE/thS1sNSjdktsSu3J4CGCacQ=="/>
@@ -228,67 +237,76 @@
 mensaje </t>
   </si>
   <si>
+    <t>Muestre en forma de objeto javascript la informacion del usuario y sea imprimido en consola</t>
+  </si>
+  <si>
+    <t>CONTAC 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enviar comentario sin datos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.- Ingresar a la pagina Servicios
+         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muestre un objeto javascript con valores vacios (null) en la consola </t>
+  </si>
+  <si>
     <t>1.- Ingresar a la página principal. 
- 2-Dar click a  boton "servicio".  
+ 2-Dar click a  boton "Ayuda".  
 3. Ir hasta el final de la pagina.           
 4. llenar informacion nombre, email y mensaje.
 5.Dar click a boton enviar.</t>
   </si>
   <si>
-    <t>Muestre en forma de objeto javascript la informacion del usuario y sea imprimido en consola</t>
-  </si>
-  <si>
-    <t>CONTAC 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enviar comentario sin datos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.- Ingresar a la pagina Servicios
-         </t>
-  </si>
-  <si>
     <t>1.- Ingresar a la página principal. 
- 2-Dar click a  boton "servicio".  
+ 2-Dar click a  boton "Ayuda".  
 3. Ir hasta el final de la pagina.           
-4.Dar click a boton enviar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muestre un objeto javascript con valores vacios (null) en la consola </t>
+4.Dar click a boton "enviar".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -298,7 +316,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -308,66 +326,67 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -557,30 +576,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.38"/>
-    <col customWidth="1" min="2" max="2" width="29.0"/>
-    <col customWidth="1" min="3" max="3" width="27.13"/>
-    <col customWidth="1" min="4" max="4" width="25.88"/>
-    <col customWidth="1" min="5" max="5" width="20.0"/>
-    <col customWidth="1" min="6" max="6" width="24.5"/>
-    <col customWidth="1" min="7" max="7" width="22.25"/>
-    <col customWidth="1" min="8" max="26" width="9.38"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="138.75" customHeight="1">
+    <row r="2" spans="1:7" ht="138.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -620,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="63.0" customHeight="1">
+    <row r="3" spans="1:7" ht="63" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -637,7 +658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="84.0" customHeight="1">
+    <row r="4" spans="1:7" ht="84" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -654,7 +675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="99.0" customHeight="1">
+    <row r="5" spans="1:7" ht="99" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -671,7 +692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="106.5" customHeight="1">
+    <row r="6" spans="1:7" ht="106.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -688,7 +709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="59.25" customHeight="1">
+    <row r="7" spans="1:7" ht="59.25" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
@@ -705,7 +726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" ht="56.25" customHeight="1">
+    <row r="8" spans="1:7" ht="56.25" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -722,7 +743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" ht="78.75" customHeight="1">
+    <row r="9" spans="1:7" ht="78.75" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>34</v>
       </c>
@@ -739,7 +760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" ht="83.25" customHeight="1">
+    <row r="10" spans="1:7" ht="83.25" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
@@ -756,7 +777,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" ht="115.5" customHeight="1">
+    <row r="11" spans="1:7" ht="115.5" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>43</v>
       </c>
@@ -773,7 +794,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="123.0" customHeight="1">
+    <row r="12" spans="1:7" ht="123" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>48</v>
       </c>
@@ -790,7 +811,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" ht="123.0" customHeight="1">
+    <row r="13" spans="1:7" ht="123" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>52</v>
       </c>
@@ -807,7 +828,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" ht="137.25" customHeight="1">
+    <row r="14" spans="1:7" ht="137.25" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>57</v>
       </c>
@@ -824,7 +845,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" ht="86.25" customHeight="1">
+    <row r="15" spans="1:7" ht="86.25" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>61</v>
       </c>
@@ -841,7 +862,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="90">
       <c r="A16" s="8" t="s">
         <v>65</v>
       </c>
@@ -852,30 +873,30 @@
         <v>67</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="8" t="s">
+    </row>
+    <row r="17" spans="1:26" ht="60">
+      <c r="A17" s="8" t="s">
         <v>69</v>
       </c>
+      <c r="B17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" ht="82.5" customHeight="1">
+    <row r="19" spans="1:26" ht="82.5" customHeight="1">
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -898,18 +919,18 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20" ht="72.0" customHeight="1"/>
-    <row r="22" ht="1.5" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="20" spans="1:26" ht="72" customHeight="1"/>
+    <row r="22" spans="1:26" ht="1.5" customHeight="1"/>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1880,9 +1901,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>